--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna1</t>
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H2">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I2">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J2">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N2">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q2">
-        <v>0.7931216487295554</v>
+        <v>6.891514872305001</v>
       </c>
       <c r="R2">
-        <v>7.138094838565999</v>
+        <v>62.02363385074501</v>
       </c>
       <c r="S2">
-        <v>0.02079699932677873</v>
+        <v>0.1365748775628773</v>
       </c>
       <c r="T2">
-        <v>0.02079699932677873</v>
+        <v>0.1365748775628773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H3">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I3">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J3">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.454069</v>
       </c>
       <c r="O3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q3">
-        <v>27.1745831318571</v>
+        <v>34.764185534645</v>
       </c>
       <c r="R3">
-        <v>244.5712481867139</v>
+        <v>312.877669811805</v>
       </c>
       <c r="S3">
-        <v>0.7125638141437668</v>
+        <v>0.6889507562477709</v>
       </c>
       <c r="T3">
-        <v>0.7125638141437667</v>
+        <v>0.6889507562477709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H4">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I4">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J4">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +679,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N4">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O4">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P4">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q4">
-        <v>5.463130738488888</v>
+        <v>3.85089703887</v>
       </c>
       <c r="R4">
-        <v>49.16817664639999</v>
+        <v>34.65807334983</v>
       </c>
       <c r="S4">
-        <v>0.1432525848619213</v>
+        <v>0.07631642698828096</v>
       </c>
       <c r="T4">
-        <v>0.1432525848619213</v>
+        <v>0.07631642698828096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.60223533333333</v>
+        <v>2.633202</v>
       </c>
       <c r="H5">
-        <v>70.80670599999999</v>
+        <v>7.899606</v>
       </c>
       <c r="I5">
-        <v>0.8824726436021215</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J5">
-        <v>0.8824726436021214</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009467333333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N5">
-        <v>0.028402</v>
+        <v>0.684721</v>
       </c>
       <c r="O5">
-        <v>0.006639577228975881</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P5">
-        <v>0.00663957722897588</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q5">
-        <v>0.2234502293124444</v>
+        <v>0.6010029022140001</v>
       </c>
       <c r="R5">
-        <v>2.011052063812</v>
+        <v>5.409026119926001</v>
       </c>
       <c r="S5">
-        <v>0.005859245269654794</v>
+        <v>0.01191057398927982</v>
       </c>
       <c r="T5">
-        <v>0.005859245269654792</v>
+        <v>0.01191057398927981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>7.899606</v>
       </c>
       <c r="I6">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J6">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03360366666666666</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N6">
-        <v>0.100811</v>
+        <v>3.454069</v>
       </c>
       <c r="O6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q6">
-        <v>0.08848524227399999</v>
+        <v>3.031753799646001</v>
       </c>
       <c r="R6">
-        <v>0.796367180466</v>
+        <v>27.28578419681401</v>
       </c>
       <c r="S6">
-        <v>0.002320233632444605</v>
+        <v>0.06008278465035797</v>
       </c>
       <c r="T6">
-        <v>0.002320233632444605</v>
+        <v>0.06008278465035795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J7">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151356333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N7">
-        <v>3.454069</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q7">
-        <v>3.031753799646</v>
+        <v>0.3358333166760001</v>
       </c>
       <c r="R7">
-        <v>27.285784196814</v>
+        <v>3.022499850084001</v>
       </c>
       <c r="S7">
-        <v>0.07949774392263052</v>
+        <v>0.006655487937910929</v>
       </c>
       <c r="T7">
-        <v>0.0794977439226305</v>
+        <v>0.006655487937910927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,61 +909,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.633202</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H8">
-        <v>7.899606</v>
+        <v>1.643866</v>
       </c>
       <c r="I8">
-        <v>0.09845375648791208</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J8">
-        <v>0.09845375648791205</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2314666666666667</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N8">
-        <v>0.6944</v>
+        <v>0.684721</v>
       </c>
       <c r="O8">
-        <v>0.1623309072530404</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P8">
-        <v>0.1623309072530403</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q8">
-        <v>0.6094984896000001</v>
+        <v>0.1250655079317778</v>
       </c>
       <c r="R8">
-        <v>5.485486406400001</v>
+        <v>1.125589571386</v>
       </c>
       <c r="S8">
-        <v>0.01598208761315268</v>
+        <v>0.002478527109005368</v>
       </c>
       <c r="T8">
-        <v>0.01598208761315267</v>
+        <v>0.002478527109005367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.633202</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H9">
-        <v>7.899606</v>
+        <v>1.643866</v>
       </c>
       <c r="I9">
-        <v>0.09845375648791208</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J9">
-        <v>0.09845375648791205</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009467333333333333</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N9">
-        <v>0.028402</v>
+        <v>3.454069</v>
       </c>
       <c r="O9">
-        <v>0.006639577228975881</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P9">
-        <v>0.00663957722897588</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q9">
-        <v>0.024929401068</v>
+        <v>0.6308918434171111</v>
       </c>
       <c r="R9">
-        <v>0.224364609612</v>
+        <v>5.678026590754001</v>
       </c>
       <c r="S9">
-        <v>0.0006536913196842774</v>
+        <v>0.01250290797693522</v>
       </c>
       <c r="T9">
-        <v>0.0006536913196842771</v>
+        <v>0.01250290797693522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,140 +1033,140 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H10">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I10">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J10">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03360366666666666</v>
+        <v>0.127538</v>
       </c>
       <c r="N10">
-        <v>0.100811</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q10">
-        <v>0.01714238409255555</v>
+        <v>0.06988512730266667</v>
       </c>
       <c r="R10">
-        <v>0.154281456833</v>
+        <v>0.6289661457240001</v>
       </c>
       <c r="S10">
-        <v>0.0004495024830091679</v>
+        <v>0.00138497164726214</v>
       </c>
       <c r="T10">
-        <v>0.0004495024830091678</v>
+        <v>0.00138497164726214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5101343333333334</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H11">
-        <v>1.530403</v>
+        <v>0.315656</v>
       </c>
       <c r="I11">
-        <v>0.01907359990996641</v>
+        <v>0.00314268589031943</v>
       </c>
       <c r="J11">
-        <v>0.0190735999099664</v>
+        <v>0.003142685890319429</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.151356333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N11">
-        <v>3.454069</v>
+        <v>0.684721</v>
       </c>
       <c r="O11">
-        <v>0.8074627800757513</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P11">
-        <v>0.8074627800757513</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q11">
-        <v>0.5873463955341111</v>
+        <v>0.02401514355288889</v>
       </c>
       <c r="R11">
-        <v>5.286117559806999</v>
+        <v>0.216136291976</v>
       </c>
       <c r="S11">
-        <v>0.01540122200935408</v>
+        <v>0.0004759280580778472</v>
       </c>
       <c r="T11">
-        <v>0.01540122200935407</v>
+        <v>0.000475928058077847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5101343333333334</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H12">
-        <v>1.530403</v>
+        <v>0.315656</v>
       </c>
       <c r="I12">
-        <v>0.01907359990996641</v>
+        <v>0.00314268589031943</v>
       </c>
       <c r="J12">
-        <v>0.0190735999099664</v>
+        <v>0.003142685890319429</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1175,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2314666666666667</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N12">
-        <v>0.6944</v>
+        <v>3.454069</v>
       </c>
       <c r="O12">
-        <v>0.1623309072530404</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P12">
-        <v>0.1623309072530403</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q12">
-        <v>0.1180790936888889</v>
+        <v>0.1211441782515556</v>
       </c>
       <c r="R12">
-        <v>1.0627118432</v>
+        <v>1.090297604264</v>
       </c>
       <c r="S12">
-        <v>0.003096234777966356</v>
+        <v>0.002400814859828882</v>
       </c>
       <c r="T12">
-        <v>0.003096234777966354</v>
+        <v>0.002400814859828881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5101343333333334</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H13">
-        <v>1.530403</v>
+        <v>0.315656</v>
       </c>
       <c r="I13">
-        <v>0.01907359990996641</v>
+        <v>0.00314268589031943</v>
       </c>
       <c r="J13">
-        <v>0.0190735999099664</v>
+        <v>0.003142685890319429</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.009467333333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N13">
-        <v>0.028402</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O13">
-        <v>0.006639577228975881</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P13">
-        <v>0.00663957722897588</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q13">
-        <v>0.004829611778444444</v>
+        <v>0.01341937830933333</v>
       </c>
       <c r="R13">
-        <v>0.04346650600599999</v>
+        <v>0.120774404784</v>
       </c>
       <c r="S13">
-        <v>0.0001266406396368094</v>
+        <v>0.0002659429724127016</v>
       </c>
       <c r="T13">
-        <v>0.0001266406396368093</v>
+        <v>0.0002659429724127015</v>
       </c>
     </row>
   </sheetData>
